--- a/Excel/Práctica/BuscarV & BuscarH/FuncionBuscarV.xlsx
+++ b/Excel/Práctica/BuscarV & BuscarH/FuncionBuscarV.xlsx
@@ -1576,31 +1576,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Una vez que hemos encontrado de manera vertical el registro que estamos buscando, a partir del dato referencia al que tenemos acceso y con el cual nos asistimos para </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>buscarv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (en mi 1er caso: ID-301-4504), entonces podríamos recuperar cualquier información adicional relacionada al mismo registro de este dato de referencia o valor buscado; esto según la columna de la que desee extraer esta información adicional del dato de referencia o de entrada. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <i/>
@@ -1676,14 +1651,61 @@
     </r>
   </si>
   <si>
-    <t>Nos permite buscar datos adicionales, de manera vertical, que se relacionen a un mismo dato de entrada indicado; es decir, conocer información adicional que se relacione o haga parte del mismo registro del dato de referencia al que tenemos acceso (valor buscado). Hay que aclarar que, generalmente, este dato de entrada es también el dato del registro de nuestro interés que va en la primera columna de la matriz donde se buscará más información.</t>
-  </si>
-  <si>
     <t>Del resto, guiese con los mismos parametros o argumentos que la función le irá mostrando propiamente.</t>
   </si>
   <si>
     <r>
-      <t>Por ejemplo, quiero recuperar información adicional del mismo registro donde se encuentra el</t>
+      <t xml:space="preserve">Nos permite buscar datos adicionales que se relacionen con un dato de entrada ya indicado (el cual se busca de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vertical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); es decir, conocer información adicional que se relacione o haga parte del mismo registro o fila a la que pertenece el dato de referencia, al que tenemos acceso desde un principio (nuestro valor buscado). Hay que aclarar que, generalmente, este dato de entrada es también el dato, de un registro de nuestro interés, que va sí o sí en la primera columna de la matriz donde se buscará más información.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una vez que hemos encontrado de manera vertical el registro que estamos buscando, a partir del dato referencia al que tenemos acceso y con el cual nos asistimos para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buscarv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (en mi 1er caso: ID-301-4504), entonces podríamos recuperar cualquier información adicional relacionada al mismo registro o fila de este dato de referencia o valor buscado; esto según la columna de la que desee extraer esta información adicional del dato de referencia o de entrada. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Por ejemplo, en el 1er ejercicio, quiero recuperar información adicional del mismo registro o fila donde se encuentra el</t>
     </r>
     <r>
       <rPr>
@@ -2049,7 +2071,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2062,19 +2084,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2398,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2433,12 +2458,12 @@
         <v>269</v>
       </c>
       <c r="F1"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2470,7 +2495,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>277</v>
       </c>
@@ -2502,14 +2527,14 @@
         <f>VLOOKUP(G3,A$2:E$193,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2543,12 +2568,12 @@
         <f>VLOOKUP(G4,A$2:E$193,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2582,12 +2607,12 @@
         <f>VLOOKUP(G5,A$2:E$193,4,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2606,12 +2631,12 @@
         <v>372</v>
       </c>
       <c r="F6"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2630,13 +2655,13 @@
         <v>272</v>
       </c>
       <c r="F7"/>
-      <c r="H7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2655,13 +2680,13 @@
         <v>372</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2680,7 +2705,13 @@
         <v>272</v>
       </c>
       <c r="F9"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2699,14 +2730,6 @@
         <v>271</v>
       </c>
       <c r="F10"/>
-      <c r="L10" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2725,12 +2748,14 @@
         <v>272</v>
       </c>
       <c r="F11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="L11" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2749,13 +2774,13 @@
         <v>372</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="14"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2774,12 +2799,12 @@
         <v>272</v>
       </c>
       <c r="F13"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2798,12 +2823,12 @@
         <v>270</v>
       </c>
       <c r="F14"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2822,12 +2847,12 @@
         <v>272</v>
       </c>
       <c r="F15"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2846,6 +2871,12 @@
         <v>372</v>
       </c>
       <c r="F16"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2864,14 +2895,6 @@
         <v>271</v>
       </c>
       <c r="F17"/>
-      <c r="L17" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -2890,12 +2913,14 @@
         <v>271</v>
       </c>
       <c r="F18"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="L18" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2914,12 +2939,12 @@
         <v>372</v>
       </c>
       <c r="F19"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -2938,12 +2963,12 @@
         <v>272</v>
       </c>
       <c r="F20"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -2962,12 +2987,12 @@
         <v>372</v>
       </c>
       <c r="F21"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2986,12 +3011,12 @@
         <v>270</v>
       </c>
       <c r="F22"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -3010,12 +3035,12 @@
         <v>372</v>
       </c>
       <c r="F23"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -3034,6 +3059,12 @@
         <v>272</v>
       </c>
       <c r="F24"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -3052,14 +3083,6 @@
         <v>270</v>
       </c>
       <c r="F25"/>
-      <c r="L25" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -3078,12 +3101,14 @@
         <v>270</v>
       </c>
       <c r="F26"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="L26" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -3102,6 +3127,12 @@
         <v>272</v>
       </c>
       <c r="F27"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -3120,14 +3151,6 @@
         <v>272</v>
       </c>
       <c r="F28"/>
-      <c r="L28" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -3146,12 +3169,14 @@
         <v>372</v>
       </c>
       <c r="F29"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="L29" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -3170,6 +3195,12 @@
         <v>272</v>
       </c>
       <c r="F30"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -3207,7 +3238,7 @@
       </c>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>370</v>
       </c>
@@ -3224,8 +3255,14 @@
         <v>372</v>
       </c>
       <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>403</v>
       </c>
@@ -3242,8 +3279,14 @@
         <v>270</v>
       </c>
       <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>458</v>
       </c>
@@ -3260,8 +3303,14 @@
         <v>372</v>
       </c>
       <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>414</v>
       </c>
@@ -3278,8 +3327,14 @@
         <v>372</v>
       </c>
       <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>437</v>
       </c>
@@ -3296,8 +3351,14 @@
         <v>271</v>
       </c>
       <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>367</v>
       </c>
@@ -3314,8 +3375,14 @@
         <v>372</v>
       </c>
       <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>400</v>
       </c>
@@ -3332,8 +3399,14 @@
         <v>271</v>
       </c>
       <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>435</v>
       </c>
@@ -3350,8 +3423,14 @@
         <v>272</v>
       </c>
       <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>364</v>
       </c>
@@ -3368,8 +3447,14 @@
         <v>270</v>
       </c>
       <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>397</v>
       </c>
@@ -3386,8 +3471,14 @@
         <v>372</v>
       </c>
       <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>453</v>
       </c>
@@ -3405,7 +3496,7 @@
       </c>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>273</v>
       </c>
@@ -3423,7 +3514,7 @@
       </c>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>302</v>
       </c>
@@ -3441,7 +3532,7 @@
       </c>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>349</v>
       </c>
@@ -3459,7 +3550,7 @@
       </c>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>382</v>
       </c>
@@ -3477,7 +3568,7 @@
       </c>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>425</v>
       </c>
@@ -6087,7 +6178,7 @@
       </c>
       <c r="F192"/>
     </row>
-    <row r="193" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>330</v>
       </c>
@@ -6105,20 +6196,27 @@
       </c>
       <c r="F193"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="L28:Q29"/>
+    <mergeCell ref="L3:Q9"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="L29:Q30"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L3:Q8"/>
-    <mergeCell ref="L10:Q15"/>
-    <mergeCell ref="L17:Q23"/>
+    <mergeCell ref="L11:Q16"/>
+    <mergeCell ref="L18:Q24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
